--- a/CorrelationAnalysis.xlsx
+++ b/CorrelationAnalysis.xlsx
@@ -9,12 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Question1" sheetId="8" r:id="rId2"/>
+    <sheet name="Question2" sheetId="9" r:id="rId3"/>
+    <sheet name="Question3" sheetId="10" r:id="rId4"/>
+    <sheet name="Question4" sheetId="11" r:id="rId5"/>
+    <sheet name="Question5" sheetId="12" r:id="rId6"/>
+    <sheet name="Question6" sheetId="17" r:id="rId7"/>
+    <sheet name="Question7" sheetId="16" r:id="rId8"/>
+    <sheet name="Question8" sheetId="15" r:id="rId9"/>
+    <sheet name="Question9" sheetId="14" r:id="rId10"/>
+    <sheet name="Question10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,14 +37,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mgzT1jw7vk62+ljQemQJ7nc5CJPGA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgzT1jw7vk62+ljQemQJ7nc5CJPGA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="146">
   <si>
     <t>iso_code</t>
   </si>
@@ -86,12 +96,550 @@
   <si>
     <t>CORRELATION MATRIX</t>
   </si>
+  <si>
+    <t>The average share price of two companies over the past 12 months are shown in table.Calculate the Pearson Correlation coefficient.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Xmean</t>
+  </si>
+  <si>
+    <t>X-Xmean</t>
+  </si>
+  <si>
+    <t>Ymean</t>
+  </si>
+  <si>
+    <t>Y-Ymean</t>
+  </si>
+  <si>
+    <t>(X-Xmean)*(Y-Ymean)</t>
+  </si>
+  <si>
+    <t>Correlation Coefficient</t>
+  </si>
+  <si>
+    <t>Xstd</t>
+  </si>
+  <si>
+    <t>(X-Xmean)^2</t>
+  </si>
+  <si>
+    <t>(Y-Ymean)^2</t>
+  </si>
+  <si>
+    <t>Ystd</t>
+  </si>
+  <si>
+    <t>No.of observation</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>The average share price of two companies over the past 12 months are shown in table.Conduct two hypothesis tests at α = 0.05.</t>
+  </si>
+  <si>
+    <t>a) The correlation between the share prices of two companies is zero.</t>
+  </si>
+  <si>
+    <t>b) The correlation between the share prices of two companies is atleast 0.5.</t>
+  </si>
+  <si>
+    <t>Null Hypotheses</t>
+  </si>
+  <si>
+    <t>Alternate Hypothesss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ρ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculated t statistic</t>
+  </si>
+  <si>
+    <t>Tabulated t-statistic</t>
+  </si>
+  <si>
+    <t>Degree of Freedom</t>
+  </si>
+  <si>
+    <t>Pearson Correlation Coefficient</t>
+  </si>
+  <si>
+    <t>∑(Xi-Xmean)(Yi-Ymean)/n*(∑(Xi-Xmean)^2)^0.5*(∑(Yi-Ymean)^2))^0.5</t>
+  </si>
+  <si>
+    <t>Calculated t-statistic</t>
+  </si>
+  <si>
+    <t>(r - ρ)*((n-2)/(1-r^2))^0.5</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= 0.5</t>
+    </r>
+  </si>
+  <si>
+    <t>The ranks of 12 countries under corruption and Gini index are shown in table.Calculate the Spearman correlation coefficient for the two indexes and test the hypotheses</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Corruption Index(Xi)</t>
+  </si>
+  <si>
+    <t>Gini Index(Yi)</t>
+  </si>
+  <si>
+    <t>D = Xi-Yi</t>
+  </si>
+  <si>
+    <t>(Xi-Yi)^2</t>
+  </si>
+  <si>
+    <t>Spearman Correlation Coefficient</t>
+  </si>
+  <si>
+    <t>No. of observation</t>
+  </si>
+  <si>
+    <t>Alternative Hypothesis</t>
+  </si>
+  <si>
+    <r>
+      <t>1-6*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>di^2/(n(n^2-1))</t>
+    </r>
+  </si>
+  <si>
+    <t>ρ &gt; 0.2</t>
+  </si>
+  <si>
+    <t>ρ &lt;= 0.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that correlation is atleast 0.2 at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.02.</t>
+    </r>
+  </si>
+  <si>
+    <t>Degree of freedom</t>
+  </si>
+  <si>
+    <t>Ms. Sandra Ruth, a data scientist at Airmobile, is interested in finding the correlation between the average call duration and gender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table provides the average call duration (measured in seconds) and gender of 30 customers of Airmobile.In table male is coded </t>
+  </si>
+  <si>
+    <t>as 0 and female coded as 1. Calculate the point bi-serial correlation.</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>n0</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>X0mean</t>
+  </si>
+  <si>
+    <t>X1mean</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Point Bi-Serial Correlation</t>
+  </si>
+  <si>
+    <t>Call Duration (X)</t>
+  </si>
+  <si>
+    <t>((X0mean-X1mean)/Xstd)*(n0*n1/(n*(n-1))^0.5</t>
+  </si>
+  <si>
+    <t>Joy Finance is a company that provides gold loan (in which gold is used as guarantee against the loan).Mr Grorgekutty,Managing</t>
+  </si>
+  <si>
+    <t>Director of JF, collected data tomunderstand the relationship between the loan default status (variable Y) and maritial status of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer (variable X). Data is collected on past 40 loans and shown in table.Calculate the Phi-coefficient.Y=0 implies non-defaulter </t>
+  </si>
+  <si>
+    <t>,Y=1 is defaulter,X=0 is single and X=1 is married.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Phi-Coefficient</t>
+  </si>
+  <si>
+    <t>(N11*N00 - N10 * N01)/(NX0 * NX1 * NY0 * Ny1)^0.5</t>
+  </si>
+  <si>
+    <t>N00</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>NX0</t>
+  </si>
+  <si>
+    <t>NX1</t>
+  </si>
+  <si>
+    <t>NY0</t>
+  </si>
+  <si>
+    <t>NY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepower is a telephone service provider which collects data on customer churn and the number of mobile headsetsused by each </t>
+  </si>
+  <si>
+    <t>customer.Table shows the data in which Y denotes churn (Y = 1 implies churn and Y = 0 implies no churn),and variable X denotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the number of handsets used by the customer where X = 0 implies the customer uses single handset and X = 1 implies the customer </t>
+  </si>
+  <si>
+    <t>uses more than one handset for making phone calls.Calculate the Phi-coefficient for the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrison Seth, Dean of a Business School, believes the outgoing salary of his MBA students may be correlated with their </t>
+  </si>
+  <si>
+    <t>undergraduate specialization. Harrison believes students with engineering specialization in undergrad received higher salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compares to those with other degrees. Table shows the outgoing salary (in millions of rupees) of MBA graduates and their </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discipline in undergraduate (1 = engineering and 0 = non-engineering). Calculate the correlation between salary and enginnering </t>
+  </si>
+  <si>
+    <t>discipline.</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Salary(X)</t>
+  </si>
+  <si>
+    <t>Table provides ranking of Indian states based on corruption and provides ranking based on literacy rank.Calculate</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chattisgarh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Orissa</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>the Spearman rank correlation between corruption rank and literacy rank. Conduct a hypothesis test to check whether</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">corruption and literacy rate are negatively correlated at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.05.</t>
+    </r>
+  </si>
+  <si>
+    <t>Corruption rank(X)</t>
+  </si>
+  <si>
+    <t>Literacy rank(Y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D = Xi - Yi</t>
+  </si>
+  <si>
+    <t>ρ &lt; 0</t>
+  </si>
+  <si>
+    <t>ρ &gt; 0.5</t>
+  </si>
+  <si>
+    <t>Mr. Chellappa is the founder of Oho Productions, which produces movies in various Indian languages. Mr. Chellappa believes</t>
+  </si>
+  <si>
+    <t>the length of the movie (measured in minutes) is related to its box office collections. Table shows length of the movie (in minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and box office collections (in millions of rupees). Use an appropriate hypothesis test to check whether there is any correlation </t>
+  </si>
+  <si>
+    <t>between the length of the movie and box office collection (in millions of rupees) at a siginificance level of 0.05.</t>
+  </si>
+  <si>
+    <t>length (X)</t>
+  </si>
+  <si>
+    <t>collection (Y)</t>
+  </si>
+  <si>
+    <t>No. of Observation</t>
+  </si>
+  <si>
+    <t>(X-Xmean)</t>
+  </si>
+  <si>
+    <t>(Y-Ymean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Bell at Bellandur University believes that the Cumulative Grade Point Average (CGPA) of students is negatively </t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlated with usage (measured in average minutes per day) of smartphones. Table shows the CGPA and smartphone usage </t>
+  </si>
+  <si>
+    <t>in minutes per day of 40 students.</t>
+  </si>
+  <si>
+    <t>a) Calculate the Pearson Correlation coefficient between CGPA and mobile phone usage of students.</t>
+  </si>
+  <si>
+    <t>b) Conduct a hypothesis test at α = 0.01 to check whether CGPA and mobile phone usage are negatively correlated.</t>
+  </si>
+  <si>
+    <t>CGPA (X)</t>
+  </si>
+  <si>
+    <t>Phone Usage (Y)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c) Professor Bell believes the correlation is less than -0.4.Conduct a hypothesis test at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.1 to check whether the claim is correct.</t>
+    </r>
+  </si>
+  <si>
+    <t>ρ &lt; -0.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= -0.4</t>
+    </r>
+  </si>
+  <si>
+    <t>ρ  = 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,11 +650,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -121,16 +671,52 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,11 +754,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -197,6 +820,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5463,11 +6116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362092240"/>
-        <c:axId val="362092624"/>
+        <c:axId val="384672600"/>
+        <c:axId val="384671424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362092240"/>
+        <c:axId val="384672600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,12 +6224,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362092624"/>
+        <c:crossAx val="384671424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362092624"/>
+        <c:axId val="384671424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5680,7 +6333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362092240"/>
+        <c:crossAx val="384672600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10967,11 +11620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359358184"/>
-        <c:axId val="359321208"/>
+        <c:axId val="384671816"/>
+        <c:axId val="384675736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359358184"/>
+        <c:axId val="384671816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11074,12 +11727,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359321208"/>
+        <c:crossAx val="384675736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359321208"/>
+        <c:axId val="384675736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11181,7 +11834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359358184"/>
+        <c:crossAx val="384671816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12362,7 +13015,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E25A2D33-48F0-1D05-9233-2316C42E446F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25A2D33-48F0-1D05-9233-2316C42E446F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12398,7 +13051,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F98D9ECF-B48E-4198-819E-0632AD1BEFDF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98D9ECF-B48E-4198-819E-0632AD1BEFDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12621,14 +13274,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L844"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -29568,4 +30223,6426 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="D8">
+        <f>(C8-$H$13)^2</f>
+        <v>1.0187537777777766</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF(B8:B37,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D37" si="0">(C9-$H$13)^2</f>
+        <v>4.9937777777778079E-3</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(B8:B37,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.82</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.22152711111111142</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6.7253777777777468E-2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <f>SUMIFS(C7:C37,B7:B37,0)/H8</f>
+        <v>2.0883333333333338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.84</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.20310044444444475</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <f>SUMIFS(C8:C37,B8:B37,1)/H9</f>
+        <v>2.5941666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5.7280444444444155E-2</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <f>SUM(C8:C37)/H10</f>
+        <v>2.2906666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.33562711111111077</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f>(SUM(D8:D37)/(H10-1))^0.5</f>
+        <v>0.53740072592980836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>9.8671111111110557E-3</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <f>((H11-H12)/H14)*(H8*H9/(H10*(H10-1))^0.5)</f>
+        <v>-6.8929213183911973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>8.6044444444441121E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2.79</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.2493337777777774</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4.9937777777778079E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2.31</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.7377777777776412E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5.7920444444444726E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.04</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6.283377777777796E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.34888711111111165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.1377777777779061E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>7.2540444444444255E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3.13</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.70448044444444358</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>9.4044444444448243E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>7.2540444444444255E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>6.794711111111143E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.70672044444444515</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1.62</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.44979377777777818</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.8787271111111123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2.31</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>3.7377777777776412E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2.37</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>6.2937777777777306E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.49093377777777825</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2.56</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>7.2540444444444255E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11">
+        <v>3.13</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.70448044444444358</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.50315377777777726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="9.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS($B$7:$B$56,$G$10,$C$7:$C$56,H9)</f>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIFS($B$7:$B$56,$G$10,$C$7:$C$56,I9)</f>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f>SUM(H10:I10)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIFS($B$7:$B$56,$G$11,$C$7:$C$56,H9)</f>
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIFS($B$7:$B$56,$G$11,$C$7:$C$56,I9)</f>
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <f>SUM(H11:I11)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H10:H11)</f>
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I10:I11)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14">
+        <f>H10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15">
+        <f>I11</f>
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16">
+        <f>I10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <f>H11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18">
+        <f>H12</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19">
+        <f>I12</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20">
+        <f>J10</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21">
+        <f>J11</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <f>(H14*H15-H16*H17)/(H18*H19*H20*H21)^0.5</f>
+        <v>0.34625732861716096</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="12">
+        <v>0</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="12">
+        <v>274.58</v>
+      </c>
+      <c r="C4" s="12">
+        <v>219.5</v>
+      </c>
+      <c r="D4">
+        <f>B4-$K$6</f>
+        <v>-18.391666666666652</v>
+      </c>
+      <c r="E4">
+        <f>C4-$K$7</f>
+        <v>-10.329166666666652</v>
+      </c>
+      <c r="F4">
+        <f>D4^2</f>
+        <v>338.25340277777724</v>
+      </c>
+      <c r="G4">
+        <f>E4^2</f>
+        <v>106.69168402777747</v>
+      </c>
+      <c r="H4">
+        <f>D4*E4</f>
+        <v>189.97059027777735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>287.95999999999998</v>
+      </c>
+      <c r="C5" s="12">
+        <v>242.92</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D15" si="0">B5-$K$6</f>
+        <v>-5.0116666666666561</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E15" si="1">C5-$K$7</f>
+        <v>13.090833333333336</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="2">D5^2</f>
+        <v>25.116802777777671</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="3">E5^2</f>
+        <v>171.36991736111119</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H15" si="4">D5*E5</f>
+        <v>-65.606893055555432</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <f>COUNT(B4:B15)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>290.35000000000002</v>
+      </c>
+      <c r="C6" s="12">
+        <v>245.9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-2.6216666666666129</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>16.070833333333354</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>6.8731361111108287</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>258.27168402777846</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>-42.132368055554743</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <f>B17/K5</f>
+        <v>292.97166666666664</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>320.07</v>
+      </c>
+      <c r="C7" s="12">
+        <v>256.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>27.098333333333358</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>26.97083333333336</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>734.31966944444571</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>727.4258506944459</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>730.86463194444582</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <f>C17/K5</f>
+        <v>229.82916666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="C8" s="12">
+        <v>240.6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>24.428333333333342</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>10.770833333333343</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>596.74346944444483</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>116.01085069444464</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>263.11350694444479</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <f>(F17/K5)^0.5</f>
+        <v>22.205279715018719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>319.52999999999997</v>
+      </c>
+      <c r="C9" s="12">
+        <v>245.23</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>26.558333333333337</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>15.400833333333338</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>705.34506944444468</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>237.18566736111126</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>409.02046527777799</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <f>(G17/K5)^0.5</f>
+        <v>16.713230018129018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>301.52</v>
+      </c>
+      <c r="C10" s="12">
+        <v>232.09</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>8.5483333333333462</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.2608333333333519</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>73.074002777777991</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>5.1113673611111947</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>19.326356944444633</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <f>H17</f>
+        <v>3241.7714166666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>271.75</v>
+      </c>
+      <c r="C11" s="12">
+        <v>222.65</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-21.221666666666636</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-7.1791666666666458</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>450.35913611110982</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>51.540434027777479</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>152.35388194444377</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <f>K10/(K8*K9*K5)</f>
+        <v>0.72792142819826477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>323.64999999999998</v>
+      </c>
+      <c r="C12" s="12">
+        <v>231.74</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>30.678333333333342</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.9108333333333576</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>941.16013611111157</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>3.6512840277778706</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>58.621181944445205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>259.8</v>
+      </c>
+      <c r="C13" s="12">
+        <v>214.43</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-33.171666666666624</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-15.399166666666645</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1100.3594694444416</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>237.1343340277771</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>510.81602361110976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>263.02</v>
+      </c>
+      <c r="C14" s="12">
+        <v>201.86</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-29.951666666666654</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-27.969166666666638</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>897.10233611111039</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>782.27428402777616</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>837.72315694444319</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="12">
+        <v>286.02999999999997</v>
+      </c>
+      <c r="C15" s="12">
+        <v>204.23</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-6.9416666666666629</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-25.599166666666662</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>48.18673611111106</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>655.31733402777752</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>177.70088194444432</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
+        <f>K17</f>
+        <v>0.72792142800000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B4:B15)</f>
+        <v>3515.66</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C4:C15)</f>
+        <v>2757.95</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>1.9895196601282805E-13</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>5916.8933666666626</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>3351.9846916666665</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>3241.7714166666665</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.72792142800000004</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J14:L14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>274.58</v>
+      </c>
+      <c r="C6" s="12">
+        <v>219.5</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>0.72792142800000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>287.95999999999998</v>
+      </c>
+      <c r="C7" s="12">
+        <v>242.92</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <f>N5-2</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
+        <v>290.35000000000002</v>
+      </c>
+      <c r="C8" s="12">
+        <v>245.9</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="12">
+        <v>320.07</v>
+      </c>
+      <c r="C9" s="12">
+        <v>256.8</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="M9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="C10" s="12">
+        <v>240.6</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <f>N6*(H7/(1-N6^2))^0.5</f>
+        <v>3.357185502786352</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>319.52999999999997</v>
+      </c>
+      <c r="C11" s="12">
+        <v>245.23</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.T.INV.2T(0.05,H7)</f>
+        <v>2.2281388519862744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>301.52</v>
+      </c>
+      <c r="C12" s="12">
+        <v>232.09</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(H10&gt;H11,"Reject Null Hypotheses","Accept Null Hyptheses")</f>
+        <v>Reject Null Hypotheses</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>271.75</v>
+      </c>
+      <c r="C13" s="12">
+        <v>222.65</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13">
+        <f>_xlfn.T.DIST.2T(H10,H7)</f>
+        <v>7.2767287056756461E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>323.64999999999998</v>
+      </c>
+      <c r="C14" s="12">
+        <v>231.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>259.8</v>
+      </c>
+      <c r="C15" s="12">
+        <v>214.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>263.02</v>
+      </c>
+      <c r="C16" s="12">
+        <v>201.86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>286.02999999999997</v>
+      </c>
+      <c r="C17" s="12">
+        <v>204.23</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <f>N5-2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <f>(N6-0.5)*(H17/(1-N6^2))^0.5</f>
+        <v>1.0511773447284249</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <f>ABS(_xlfn.T.INV(0.05,H17))</f>
+        <v>1.812461122811676</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(H20&gt;H21,"Reject Null Hypotheses","Accept Null Hyptheses")</f>
+        <v>Accept Null Hyptheses</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.T.DIST.RT(H20,H17)</f>
+        <v>0.15895786358202771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <f>E5^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E16" si="0">C6-D6</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F16" si="1">E6^2</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <f>1-(6*F17)/(J6*(J6^2-1))</f>
+        <v>0.7622377622377623</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <f>J6-2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <f>(J7-0.2)*((J11/(1-J7^2))^0.5)</f>
+        <v>2.7467322066641398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <f>ABS(_xlfn.T.INV(0.02,J11))</f>
+        <v>2.3593146237365366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(J14&gt;J15,"Reject Null Hypotheses","Accept Null Hypotheses")</f>
+        <v>Reject Null Hypotheses</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F5:F16)</f>
+        <v>68</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17">
+        <f>_xlfn.T.DIST.RT(J14,J11)</f>
+        <v>1.0296709922960634E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>448</v>
+      </c>
+      <c r="D6">
+        <f>(C6-$G$12)^2</f>
+        <v>10540.444444444449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>335</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D35" si="0">(C7-$G$12)^2</f>
+        <v>106.77777777777739</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(B6:B35,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>210</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>18315.111111111106</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(B6:B35,1)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>382</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1344.4444444444459</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>407</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3802.7777777777801</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <f>SUMIFS(C6:C35,B6:B35,0)/G7</f>
+        <v>353.07692307692309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>231</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13072.111111111108</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <f>SUMIFS(C6:C35,B6:B35,1)/G8</f>
+        <v>339.41176470588238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>359</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>186.77777777777828</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f>SUM(C6:C35)/G9</f>
+        <v>345.33333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>287</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3402.7777777777756</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f>(SUM(D6:D35)/(G9-1))^0.5</f>
+        <v>71.71895980424074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>288</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3287.111111111109</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <f>((G11-G10)/G13)*(G7*G8/(G9*(G9-1)))^0.5</f>
+        <v>-9.6032270661217708E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>347</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.7777777777778407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>408</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3927.1111111111136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>382</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1344.4444444444459</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>303</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1792.1111111111095</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>201</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>20832.111111111106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>447</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>10336.111111111115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>439</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>8773.4444444444489</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>383</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1418.7777777777792</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>277</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4669.4444444444416</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>279</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>4400.1111111111086</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>213</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>17512.111111111106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>383</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1418.7777777777792</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>355</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>93.444444444444812</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>362</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>277.7777777777784</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>401</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3098.7777777777801</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <v>331</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>205.44444444444389</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>421</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5725.4444444444471</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12">
+        <v>367</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>469.44444444444525</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>437</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>8402.777777777781</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <v>326</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>373.77777777777703</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>351</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>32.111111111111327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIFS($B$7:$B$46,$G$9,$C$7:$C$46,H8)</f>
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIFS($B$7:$B$46,$G$9,$C$7:$C$46,I8)</f>
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <f>SUM(H9:I9)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS($B$7:$B$46,$G$10,$C$7:$C$46,H8)</f>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIFS($B$7:$B$46,$G$10,$C$7:$C$46,I8)</f>
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f>SUM(H10:I10)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H9:H10)</f>
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I9:I10)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <f>H9</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <f>I10</f>
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <f>I9</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <f>H10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <f>H11</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <f>I11</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <f>J9</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20">
+        <f>J10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21">
+        <f>(H13*H14-H15*H16)/(H17*H18*H19*H20)^0.5</f>
+        <v>-2.3017902813299233E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView topLeftCell="K18" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="C9" s="12">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <f>B9-$K$13</f>
+        <v>0.32400000000000073</v>
+      </c>
+      <c r="E9">
+        <f>(C9-$K$14)</f>
+        <v>-12.849999999999994</v>
+      </c>
+      <c r="F9">
+        <f>D9^2</f>
+        <v>0.10497600000000047</v>
+      </c>
+      <c r="G9">
+        <f>E9^2</f>
+        <v>165.12249999999986</v>
+      </c>
+      <c r="H9">
+        <f>D9*E9</f>
+        <v>-4.1634000000000073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="C10" s="12">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D48" si="0">B10-$K$13</f>
+        <v>-7.5999999999999179E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E48" si="1">(C10-$K$14)</f>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F48" si="2">D10^2</f>
+        <v>5.775999999999875E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G48" si="3">E10^2</f>
+        <v>1.3225000000000131</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H48" si="4">D10*E10</f>
+        <v>-8.7399999999999492E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="12">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.46599999999999908</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-22.849999999999994</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.21715599999999916</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>522.12249999999972</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>10.648099999999976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="C12" s="12">
+        <v>136</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.85599999999999921</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>48.150000000000006</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.73273599999999861</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>2318.4225000000006</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>-41.216399999999965</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.22599999999999909</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>7.1500000000000057</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>5.1075999999999587E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>51.12250000000008</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>-1.6158999999999948</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <f>SUM(B9:B48)/K12</f>
+        <v>2.3259999999999992</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>1.94</v>
+      </c>
+      <c r="C14" s="12">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.38599999999999923</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>15.150000000000006</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.14899599999999941</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>229.52250000000018</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>-5.8478999999999903</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <f>SUM(C9:C48)/K12</f>
+        <v>87.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>2.71</v>
+      </c>
+      <c r="C15" s="12">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.38400000000000079</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-13.849999999999994</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.14745600000000061</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>191.82249999999985</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>-5.3184000000000085</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <f>(SUM(F9:F48)/K12)^0.5</f>
+        <v>0.40216165903775558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="C16" s="12">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.49599999999999911</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>21.150000000000006</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.24601599999999912</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>447.32250000000022</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>-10.490399999999983</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <f>(SUM(G9:G48)/40)^0.5</f>
+        <v>16.032077220372908</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="C17" s="12">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.32400000000000073</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-12.849999999999994</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.10497600000000047</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>165.12249999999986</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>-4.1634000000000073</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <f>SUM(H9:H48)</f>
+        <v>-206.994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>2.04</v>
+      </c>
+      <c r="C18" s="12">
+        <v>98</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.28599999999999914</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>10.150000000000006</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>8.1795999999999508E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>103.02250000000012</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>-2.9028999999999932</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <f>K17/(K15*K16*K12)</f>
+        <v>-0.80261506264083471</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>2.54</v>
+      </c>
+      <c r="C19" s="12">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.21400000000000086</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-27.849999999999994</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>4.5796000000000364E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>775.62249999999972</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>-5.9599000000000224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>2.16</v>
+      </c>
+      <c r="C20" s="12">
+        <v>93</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.16599999999999904</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5.1500000000000057</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>2.7555999999999681E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>26.522500000000058</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-0.854899999999996</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C21" s="12">
+        <v>88</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-4.5999999999999375E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2.1159999999999426E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>2.2500000000001706E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>-6.9000000000001673E-3</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C22" s="12">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.14400000000000102</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-6.8499999999999943</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>2.0736000000000292E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>46.922499999999921</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>-0.98640000000000616</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C23" s="12">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.14599999999999902</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2.1315999999999714E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>17.222500000000046</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>-0.60589999999999677</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <f>K18*(K20/(1-K18^2))^0.5</f>
+        <v>-8.2945074629220787</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="C24" s="12">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.24400000000000066</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-9.8499999999999943</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>5.9536000000000325E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>97.022499999999894</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>-2.4034000000000053</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <f>_xlfn.T.INV(0.01,K20)</f>
+        <v>-2.4285676308590882</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="C25" s="12">
+        <v>102</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.35599999999999921</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>14.150000000000006</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.12673599999999943</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>200.22250000000017</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>-5.037399999999991</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(ABS(K23)&gt;ABS(K24),"Reject Null Hypotheses","Accept Null Hyptheses")</f>
+        <v>Reject Null Hypotheses</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="C26" s="12">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.54400000000000093</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-17.849999999999994</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.29593600000000103</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>318.62249999999977</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>-9.7104000000000141</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <f>_xlfn.T.DIST(K23,K20,FALSE)</f>
+        <v>7.0272397399731054E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.22599999999999909</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>7.1500000000000057</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>5.1075999999999587E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>51.12250000000008</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>-1.6158999999999948</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>3.28</v>
+      </c>
+      <c r="C28" s="12">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.95400000000000063</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.91011600000000115</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>1.3225000000000131</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>1.0971000000000062</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="12">
+        <v>2.78</v>
+      </c>
+      <c r="C29" s="12">
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.45400000000000063</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-15.849999999999994</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.20611600000000058</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>251.22249999999983</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>-7.1959000000000071</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>2.44</v>
+      </c>
+      <c r="C30" s="12">
+        <v>82</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.11400000000000077</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>-5.8499999999999943</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1.2996000000000176E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>34.222499999999933</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>-0.66690000000000382</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>1.87</v>
+      </c>
+      <c r="C31" s="12">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-0.45599999999999907</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>19.150000000000006</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.20793599999999915</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>366.7225000000002</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>-8.7323999999999842</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31">
+        <f>(K18+0.4)*(K28/(1-K18^2))^0.5</f>
+        <v>-4.1607662218191468</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="12">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.17400000000000082</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>-7.8499999999999943</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>3.0276000000000285E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>61.62249999999991</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>-1.3659000000000054</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <f>_xlfn.T.INV(0.1,K28)</f>
+        <v>-1.3042302038905009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C33" s="12">
+        <v>89</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-8.5999999999998966E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>7.395999999999822E-3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>1.3225000000000131</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>-9.8899999999999294E-2</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(ABS(K31)&gt;ABS(K32),"Reject Null Hypotheses","Accept Null Hyptheses")</f>
+        <v>Reject Null Hypotheses</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C34" s="12">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-0.31599999999999939</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>12.150000000000006</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>9.9855999999999612E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>147.62250000000014</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>-3.8393999999999946</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <f>_xlfn.T.DIST(K31,K28,FALSE)</f>
+        <v>2.623369766012428E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="C35" s="12">
+        <v>92</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-0.15599999999999925</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>2.4335999999999768E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>17.222500000000046</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>-0.64739999999999776</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C36" s="12">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-0.125999999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.5875999999999748E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>9.922500000000035</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>-0.39689999999999759</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C37" s="12">
+        <v>98</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-0.27599999999999936</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>10.150000000000006</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>7.6175999999999647E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>103.02250000000012</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>-2.8013999999999952</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
+        <v>1.63</v>
+      </c>
+      <c r="C38" s="12">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-0.69599999999999929</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>35.150000000000006</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.48441599999999901</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>1235.5225000000005</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>-24.46439999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C39" s="12">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-4.5999999999999375E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>2.1159999999999426E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>2.2500000000001706E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>-6.9000000000001673E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
+        <v>2.63</v>
+      </c>
+      <c r="C40" s="12">
+        <v>76</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.30400000000000071</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-11.849999999999994</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>9.2416000000000428E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>140.42249999999987</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>-3.6024000000000069</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
+        <v>2.86</v>
+      </c>
+      <c r="C41" s="12">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.5340000000000007</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>-17.849999999999994</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.28515600000000074</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>318.62249999999977</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>-9.5319000000000091</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C42" s="12">
+        <v>89</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-8.5999999999998966E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>7.395999999999822E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1.3225000000000131</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>-9.8899999999999294E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>2.44</v>
+      </c>
+      <c r="C43" s="12">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.11400000000000077</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>-5.8499999999999943</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1.2996000000000176E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>34.222499999999933</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>-0.66690000000000382</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
+        <v>2.69</v>
+      </c>
+      <c r="C44" s="12">
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.36400000000000077</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-13.849999999999994</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.13249600000000056</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>191.82249999999985</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>-5.0414000000000083</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C45" s="12">
+        <v>90</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-0.10599999999999898</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1.1235999999999784E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>4.6225000000000245</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>-0.22789999999999841</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="C46" s="12">
+        <v>65</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.74400000000000066</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>-22.849999999999994</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0.55353600000000103</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>522.12249999999972</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>-17.00040000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
+        <v>1.77</v>
+      </c>
+      <c r="C47" s="12">
+        <v>113</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-0.55599999999999916</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>25.150000000000006</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0.30913599999999908</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>632.52250000000026</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>-13.983399999999982</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
+        <v>3.03</v>
+      </c>
+      <c r="C48" s="12">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.70400000000000063</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>-21.849999999999994</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0.49561600000000089</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>477.42249999999973</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>-15.382400000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>121</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="D7">
+        <f>B7-$K$10</f>
+        <v>-3.4666666666666686</v>
+      </c>
+      <c r="E7">
+        <f>C7-$K$11</f>
+        <v>-790.49126666666677</v>
+      </c>
+      <c r="F7">
+        <f>D7^2</f>
+        <v>12.017777777777791</v>
+      </c>
+      <c r="G7">
+        <f>E7^2</f>
+        <v>624876.44267627131</v>
+      </c>
+      <c r="H7">
+        <f>D7*E7</f>
+        <v>2740.3697244444461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>79</v>
+      </c>
+      <c r="C8" s="12">
+        <v>415</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D36" si="0">B8-$K$10</f>
+        <v>-45.466666666666669</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E36" si="1">C8-$K$11</f>
+        <v>-376.56926666666675</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F36" si="2">D8^2</f>
+        <v>2067.2177777777779</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G36" si="3">E8^2</f>
+        <v>141804.41259787118</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H36" si="4">D8*E8</f>
+        <v>17121.349324444447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>170</v>
+      </c>
+      <c r="C9" s="12">
+        <v>441</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>45.533333333333331</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-350.56926666666675</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2073.2844444444445</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>122898.8107312045</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>-15962.587275555559</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9">
+        <f>COUNT(B7:B36)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>160</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1192</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>35.533333333333331</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>400.43073333333325</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1262.6177777777777</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>160344.77219787103</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>14228.638724444441</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <f>SUM(B7:B36)/K9</f>
+        <v>124.46666666666667</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>77</v>
+      </c>
+      <c r="C11" s="12">
+        <v>258</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-47.466666666666669</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-533.56926666666675</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2253.0844444444447</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>284696.16233120451</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>25326.754524444448</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <f>SUM(C7:C36)/K9</f>
+        <v>791.56926666666675</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>147</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1185</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>22.533333333333331</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>393.43073333333325</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>507.75111111111102</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>154787.74193120439</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>8865.3058577777756</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <f>(SUM(F7:F36)/K9)^0.5</f>
+        <v>30.727548262466733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>115</v>
+      </c>
+      <c r="C13" s="12">
+        <v>139</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-9.4666666666666686</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-652.56926666666675</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>89.617777777777818</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>425846.64779787121</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>6177.6557244444466</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <f>(SUM(G7:G36)/K9)^0.5</f>
+        <v>505.68870675373228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>76</v>
+      </c>
+      <c r="C14" s="12">
+        <v>427</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-48.466666666666669</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-364.56926666666675</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2349.0177777777781</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>132910.75019787118</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>17669.457124444449</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <f>SUM(H7:H36)</f>
+        <v>95891.796266666686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>110</v>
+      </c>
+      <c r="C15" s="12">
+        <v>309</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-14.466666666666669</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-482.56926666666675</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>209.28444444444449</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>232873.09713120453</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>6981.1687244444465</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <f>K14/(K12*K13*K9)</f>
+        <v>0.20570698312234859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>141</v>
+      </c>
+      <c r="C16" s="12">
+        <v>411</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>16.533333333333331</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-380.56926666666675</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>273.35111111111104</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>144832.96673120451</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>-6292.0785422222225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>100</v>
+      </c>
+      <c r="C17" s="12">
+        <v>506</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-24.466666666666669</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-285.56926666666675</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>598.61777777777786</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>81549.806064537828</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>6986.9280577777799</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>82</v>
+      </c>
+      <c r="C18" s="12">
+        <v>441</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-42.466666666666669</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-350.56926666666675</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1803.4177777777779</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>122898.8107312045</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>14887.508191111116</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="12">
+        <v>82</v>
+      </c>
+      <c r="C19" s="12">
+        <v>595</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-42.466666666666669</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-196.56926666666675</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1803.4177777777779</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>38639.476597871144</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>8347.6415244444488</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="12">
+        <v>114</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1728</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-10.466666666666669</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>936.43073333333325</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>109.55111111111115</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>876902.51833120431</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-9801.3083422222226</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>110</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1507</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-14.466666666666669</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>715.43073333333325</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>209.28444444444449</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>511841.13419787097</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>-10349.897942222222</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <f>K15*(K18/(1-K15^2))^0.5</f>
+        <v>1.1122868178599643</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>163</v>
+      </c>
+      <c r="C22" s="12">
+        <v>518</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>38.533333333333331</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-273.56926666666675</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1484.8177777777776</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>74840.143664537827</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>-10541.535742222224</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <f>_xlfn.T.INV.2T(0.05,K18)</f>
+        <v>2.0484071417952445</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>92</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1463</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-32.466666666666669</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>671.43073333333325</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1054.0844444444447</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>450819.22966453765</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>-21799.117808888888</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(K21&gt;K22,"Reject Null Hypotheses","Accept Null Hyptheses")</f>
+        <v>Accept Null Hyptheses</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>172</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1356</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>47.533333333333331</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>564.43073333333325</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2259.4177777777777</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>318582.05273120437</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>26829.274191111108</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <f>_xlfn.T.DIST.2T(K21,K18)</f>
+        <v>0.27547389125783417</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>142</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1014</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>17.533333333333331</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>222.43073333333325</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>307.4177777777777</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>49475.431131204408</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>3899.9521911111092</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>136</v>
+      </c>
+      <c r="C26" s="12">
+        <v>422</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>11.533333333333331</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-369.56926666666675</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>133.01777777777772</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>136581.44286453785</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>-4262.3655422222228</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>143</v>
+      </c>
+      <c r="C27" s="12">
+        <v>508</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>18.533333333333331</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-283.56926666666675</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>343.48444444444436</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>80411.528997871152</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>-5255.4837422222236</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>108</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1262</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-16.466666666666669</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>470.43073333333325</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>271.15111111111116</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>221305.07486453769</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>-7746.4260755555551</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>154</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1783</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>29.533333333333331</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>991.43073333333325</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>872.21777777777766</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>982934.89899787097</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>29280.254324444439</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>140</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1281</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>15.533333333333331</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>489.43073333333325</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>241.28444444444438</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>239542.44273120436</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>7602.4907244444421</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>177</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1253</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>52.533333333333331</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>461.43073333333325</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>2759.7511111111107</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>212918.32166453771</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>24240.494524444439</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1178</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-27.466666666666669</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>386.43073333333325</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>754.41777777777793</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>149328.71166453772</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>-10613.964142222221</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>106</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1103</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-18.466666666666669</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>311.43073333333325</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>341.01777777777784</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>96989.101664537724</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>-5751.0875422222216</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>163</v>
+      </c>
+      <c r="C34" s="12">
+        <v>454</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>38.533333333333331</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>-337.56926666666675</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1484.8177777777776</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>113953.00979787117</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>-13007.669075555557</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>142</v>
+      </c>
+      <c r="C35" s="12">
+        <v>301</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>17.533333333333331</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>-490.56926666666675</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>307.4177777777777</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>240658.20539787121</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>-8601.3144755555568</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>115</v>
+      </c>
+      <c r="C36" s="12">
+        <v>296</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-9.4666666666666686</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>-495.56926666666675</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>89.617777777777818</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>245588.89806453785</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>4691.3890577777793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>-15</v>
+      </c>
+      <c r="F6">
+        <f>E6^2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E21" si="0">C7-D7</f>
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F21" si="1">E7^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="10">
+        <f>COUNT(C6:C21)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="12">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <f>1-(6*F23)/(I8*(I8^2-1))</f>
+        <v>-0.45882352941176463</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="12">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13">
+        <f>I8-2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="12">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="12">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <f>(I9)*((I13/(1-I9^2))^0.5)</f>
+        <v>-1.9321412229621944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="12">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <f>_xlfn.T.INV(0.05,I13)</f>
+        <v>-1.7613101357748921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="12">
+        <v>13</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(ABS(I16)&gt;ABS(I17),"Reject Null Hypotheses","Accept Null Hypotheses")</f>
+        <v>Reject Null Hypotheses</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="12">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19">
+        <f>_xlfn.T.DIST(I16,I13,FALSE)</f>
+        <v>6.6561615286812398E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="12">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="12">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F6:F21)</f>
+        <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>